--- a/ponderaciones/Ponderaciones.xlsx
+++ b/ponderaciones/Ponderaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Universidad\3\PINF\CalculadoraCO2\ponderaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AD4A5CC-F4E8-4F84-B0C2-B12744E88829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8C456D-A654-4B03-B224-FBC6D65CC6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="9970" xr2:uid="{1F3419FC-22DA-443A-A229-AEE1317CE497}"/>
+    <workbookView xWindow="-28920" yWindow="2220" windowWidth="29040" windowHeight="15720" xr2:uid="{1F3419FC-22DA-443A-A229-AEE1317CE497}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Objeto</t>
   </si>
@@ -99,13 +99,100 @@
   </si>
   <si>
     <t>EL BALANCE ES = EVITADO - CONSUMIDO</t>
+  </si>
+  <si>
+    <t>Carne Vacuno</t>
+  </si>
+  <si>
+    <t>Carne Cerdo</t>
+  </si>
+  <si>
+    <t>Pollo</t>
+  </si>
+  <si>
+    <t>Vegetales/Legumbres</t>
+  </si>
+  <si>
+    <t>Frutas</t>
+  </si>
+  <si>
+    <t>(Media de carne)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Móvil </t>
+  </si>
+  <si>
+    <t>Portátil</t>
+  </si>
+  <si>
+    <t>Ordenador torre</t>
+  </si>
+  <si>
+    <t>Calefacción</t>
+  </si>
+  <si>
+    <t>Electrica</t>
+  </si>
+  <si>
+    <t>Gas Natural</t>
+  </si>
+  <si>
+    <t>27,0 ~ 60,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kg  CO2 por kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,0 ~ 12,0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,0 ~7,0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,001 ~ 0,005 </t>
+  </si>
+  <si>
+    <t>kg CO2 por h</t>
+  </si>
+  <si>
+    <t>0,020 ~ 0,050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,060 ~ 0,150 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,250 ~ 0,4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,18 ~ 0,22 </t>
+  </si>
+  <si>
+    <t>0,2 ~ 1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kg  CO2 por ud</t>
+  </si>
+  <si>
+    <t>Racion de Verduras</t>
+  </si>
+  <si>
+    <t>Pieza de Fruta</t>
+  </si>
+  <si>
+    <t>Filete de Ternera</t>
+  </si>
+  <si>
+    <t>Chuleta de Cerdo</t>
+  </si>
+  <si>
+    <t>Pechuga de Pollo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +224,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,11 +253,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,17 +593,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0655A8C2-ED66-4C83-B2B8-3889973DEE81}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -631,6 +728,156 @@
         <v>20</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <f>0.18*40</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <f>0.18*9</f>
+        <v>1.6199999999999999</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <f>0.12*6</f>
+        <v>0.72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <f>0.18*0.5</f>
+        <v>0.09</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0.4</v>
+      </c>
+      <c r="C25">
+        <f>0.12*0.4</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ponderaciones/Ponderaciones.xlsx
+++ b/ponderaciones/Ponderaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Universidad\3\PINF\CalculadoraCO2\ponderaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8C456D-A654-4B03-B224-FBC6D65CC6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE0DF24-269E-4E7B-BAC3-6C48E9A05CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2220" windowWidth="29040" windowHeight="15720" xr2:uid="{1F3419FC-22DA-443A-A229-AEE1317CE497}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Objeto</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Electrica</t>
   </si>
   <si>
-    <t>Gas Natural</t>
-  </si>
-  <si>
     <t>27,0 ~ 60,0</t>
   </si>
   <si>
@@ -159,12 +156,6 @@
   </si>
   <si>
     <t xml:space="preserve">0,060 ~ 0,150 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,250 ~ 0,4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,18 ~ 0,22 </t>
   </si>
   <si>
     <t>0,2 ~ 1,0</t>
@@ -596,7 +587,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -720,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>2.9999999999999997E-4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -733,31 +724,23 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
+      <c r="B14">
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -765,14 +748,14 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <f>0.18*40</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -780,14 +763,14 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <f>0.18*9</f>
         <v>1.6199999999999999</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -795,14 +778,14 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <f>0.12*6</f>
         <v>0.72</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -815,7 +798,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="4"/>
     </row>
@@ -824,14 +807,14 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <f>0.18*0.5</f>
         <v>0.09</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -846,12 +829,12 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -859,7 +842,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -867,7 +850,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -875,7 +858,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ponderaciones/Ponderaciones.xlsx
+++ b/ponderaciones/Ponderaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Universidad\3\PINF\CalculadoraCO2\ponderaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE0DF24-269E-4E7B-BAC3-6C48E9A05CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2893719F-E89F-4ABE-A260-8A1B772E7D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2220" windowWidth="29040" windowHeight="15720" xr2:uid="{1F3419FC-22DA-443A-A229-AEE1317CE497}"/>
   </bookViews>
@@ -629,10 +629,10 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C3">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -643,10 +643,10 @@
         <v>8</v>
       </c>
       <c r="B4">
+        <v>0.09</v>
+      </c>
+      <c r="C4">
         <v>0.04</v>
-      </c>
-      <c r="C4">
-        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -657,10 +657,10 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="C5">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -676,7 +676,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -687,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.08</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -711,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
